--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2860551.145642733</v>
+        <v>-2863119.3459221</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>86.37119443510272</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
         <v>14.65581357412179</v>
@@ -1430,10 +1430,10 @@
         <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>265.8219907746612</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3168224572494</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0922386048249</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>88.46029360621847</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>72.01536891597782</v>
       </c>
       <c r="H14" t="n">
         <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>18.23322906353592</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572494</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>43.20689370194883</v>
+        <v>88.46029360621854</v>
       </c>
       <c r="E16" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.104692060224</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124317</v>
+        <v>62.01103647124316</v>
       </c>
       <c r="S16" t="n">
-        <v>162.847909132638</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
         <v>192.627833077365</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2907220068091</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250238</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460838</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>239.1248840069819</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>270.8304213660219</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077906</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527381</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000162</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386568</v>
+        <v>312.3416858386569</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645405</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123106</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081558</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5377098291724</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553447</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163145</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692401</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244133</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265056</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2879804958523</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587724</v>
+        <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>274.730793370022</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064312</v>
+        <v>178.2413905064313</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191942</v>
+        <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.688400534698</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2084,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>220.6527607443236</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>168.4597566232942</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077909</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123111</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1295554416315</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2739700787305</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0358998526506</v>
+        <v>77.45110783445654</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,7 +2293,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2321,19 +2321,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077909</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123111</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1295554416315</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692405</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2530,7 +2530,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>274.7307933700225</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
@@ -2539,10 +2539,10 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.1036085165046</v>
+        <v>144.6884005346981</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -3001,10 +3001,10 @@
         <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.573812657577</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870196</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524159</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020904</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870198</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1542.656088015027</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.656088015027</v>
+        <v>797.5453589283436</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.583436073735</v>
+        <v>797.5453589283436</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9882301409494</v>
+        <v>438.950152995558</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1953720168007</v>
+        <v>351.70652225303</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31596852725593</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H11" t="n">
         <v>81.31596852725593</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
         <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.3860687907</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V11" t="n">
         <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.009166724043</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X11" t="n">
-        <v>2265.009166724043</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1902.06288141369</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7845497018207</v>
+        <v>418.3291315370392</v>
       </c>
       <c r="C13" t="n">
-        <v>447.4388541413917</v>
+        <v>276.585995274591</v>
       </c>
       <c r="D13" t="n">
-        <v>447.4388541413917</v>
+        <v>276.585995274591</v>
       </c>
       <c r="E13" t="n">
-        <v>326.7188072244573</v>
+        <v>155.8659483576566</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0219063920057</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218342</v>
@@ -5200,7 +5200,7 @@
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
         <v>712.1374453869398</v>
@@ -5215,10 +5215,10 @@
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
         <v>2077.872377806008</v>
@@ -5230,19 +5230,19 @@
         <v>1718.805971533278</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.896151324381</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783953</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124506</v>
+        <v>967.1805864124502</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798919</v>
+        <v>766.3840821798916</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7845497018207</v>
+        <v>572.7845497018202</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.170137704437</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.170137704437</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.170137704437</v>
+        <v>808.2421772620048</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574931771652</v>
+        <v>808.2421772620048</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7820736475028</v>
+        <v>424.449319137856</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579575</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725592</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5318,10 +5318,10 @@
         <v>2207.940619507934</v>
       </c>
       <c r="X14" t="n">
-        <v>2189.523216413453</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1826.5769311031</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.2389517459366</v>
+        <v>418.3291315370391</v>
       </c>
       <c r="C16" t="n">
-        <v>680.2389517459366</v>
+        <v>276.5859952745909</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5956247742711</v>
+        <v>187.2321633491178</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573367</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248851</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650628</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159352</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K16" t="n">
         <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869399</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R16" t="n">
         <v>2077.872377806008</v>
@@ -5464,22 +5464,22 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533277</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.805971533277</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.314529992849</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.090406621347</v>
+        <v>967.1805864124501</v>
       </c>
       <c r="X16" t="n">
-        <v>1028.293902388789</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.6943699107176</v>
+        <v>572.7845497018201</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1817.73497143543</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.415134108551</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.792115115332</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274311</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098841</v>
+        <v>289.4530372098842</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
@@ -5522,19 +5522,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,10 +5543,10 @@
         <v>3289.957832749798</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V17" t="n">
         <v>2723.314759904882</v>
@@ -5555,10 +5555,10 @@
         <v>2445.1887842483</v>
       </c>
       <c r="X17" t="n">
-        <v>2445.1887842483</v>
+        <v>2146.365705600752</v>
       </c>
       <c r="Y17" t="n">
-        <v>2129.69213188602</v>
+        <v>1830.869053238473</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470828</v>
+        <v>569.1149231470833</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327079</v>
+        <v>474.8214198327085</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339043</v>
+        <v>399.3474600339048</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650433</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F19" t="n">
-        <v>253.829778180665</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689161</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030598</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.017901271823</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454881</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194057</v>
+        <v>1370.433778194058</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601702</v>
+        <v>1190.391969601703</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782737</v>
+        <v>975.6174791782744</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937885</v>
+        <v>822.270607893789</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637904</v>
+        <v>676.120708363791</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.911892787882</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592055461002</v>
+        <v>1224.592055461003</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.592055461002</v>
+        <v>940.9690364677846</v>
       </c>
       <c r="E20" t="n">
-        <v>913.4464824762904</v>
+        <v>629.8234634830724</v>
       </c>
       <c r="F20" t="n">
-        <v>577.1032573002149</v>
+        <v>406.941886973655</v>
       </c>
       <c r="G20" t="n">
-        <v>236.6734867587432</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5771,7 +5771,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,7 +5780,7 @@
         <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
         <v>2979.73496763492</v>
@@ -5792,7 +5792,7 @@
         <v>2445.188784248299</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600751</v>
+        <v>2146.365705600752</v>
       </c>
       <c r="Y20" t="n">
         <v>1830.869053238472</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751704</v>
+        <v>569.1149231470833</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607955</v>
+        <v>474.8214198327085</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619918</v>
+        <v>399.3474600339048</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1227106931307</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8754428087524</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8152857970034</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030601</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459553</v>
+        <v>1849.061105831466</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271824</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454882</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822145</v>
+        <v>1370.433778194058</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601703</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782744</v>
       </c>
       <c r="X22" t="n">
-        <v>885.316272521876</v>
+        <v>822.270607893789</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.166372991878</v>
+        <v>676.120708363791</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>973.09139148752</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9799380865974</v>
+        <v>596.0759796411444</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014151335006</v>
+        <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005836</v>
+        <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.823484064618</v>
+        <v>2127.42091462026</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943955</v>
+        <v>2630.393385499597</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301133</v>
+        <v>3343.748472946543</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056816</v>
+        <v>3592.034834702225</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
         <v>3323.002895639369</v>
@@ -6060,16 +6060,16 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073442</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632368</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
         <v>772.0171037759022</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.980281707172</v>
+        <v>575.9802817071723</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927972</v>
+        <v>481.6867783927974</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939935</v>
+        <v>406.2128185939937</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251324</v>
+        <v>332.9424046251326</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407543</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290052</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039497</v>
+        <v>96.06047256039503</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365804</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361294</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549610496067</v>
@@ -6178,19 +6178,19 @@
         <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382234</v>
+        <v>1377.299136754147</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789879</v>
+        <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.528502366451</v>
+        <v>982.4828377383633</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819652</v>
+        <v>829.1359664538779</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238797</v>
+        <v>682.9860669238799</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,22 +6224,22 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2735.569460712894</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3238.541931592231</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521974</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6309,7 +6309,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6388,7 +6388,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
@@ -6467,46 +6467,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386887</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6652,13 +6652,13 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6692,10 +6692,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6710,40 +6710,40 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6783,7 +6783,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6853,16 +6853,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644069</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
         <v>1400.778593038484</v>
@@ -6923,7 +6923,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,22 +6935,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>625.3777437664567</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1076.411957014865</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1609.94386168679</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N35" t="n">
-        <v>2156.722678745572</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
         <v>3750.042416521973</v>
@@ -6977,7 +6977,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,7 +7093,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973143</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,25 +7172,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2265.111559082034</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.687329075027</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
         <v>3998.328778277655</v>
@@ -7205,19 +7205,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,10 +7360,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
@@ -7372,10 +7372,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,25 +7412,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.936041136909</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N41" t="n">
-        <v>2533.714858195691</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7491,10 +7491,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7582,37 +7582,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,22 +7649,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>907.4660419013969</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1771.984857554752</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226676</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q44" t="n">
         <v>3998.328778277656</v>
@@ -7725,10 +7725,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803191</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886092</v>
+        <v>164.4450187886097</v>
       </c>
       <c r="K8" t="n">
-        <v>195.209426659291</v>
+        <v>195.2094266592918</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419194</v>
+        <v>204.9000484419204</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526781</v>
+        <v>196.0014531526792</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740272</v>
+        <v>194.5125490740284</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201057</v>
+        <v>197.1426452201068</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561911</v>
+        <v>203.106182456192</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567229</v>
+        <v>201.1836244567236</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485206</v>
+        <v>116.9502528485209</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814161</v>
+        <v>120.9423422814166</v>
       </c>
       <c r="L9" t="n">
-        <v>115.83145879815</v>
+        <v>115.8314587981507</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072884</v>
+        <v>115.6174569072892</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775609</v>
+        <v>104.1233201775618</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951445</v>
+        <v>117.6967333951453</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175964</v>
+        <v>113.9903546175971</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213391</v>
+        <v>126.6229640213396</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218792</v>
+        <v>121.8405463218796</v>
       </c>
       <c r="M10" t="n">
-        <v>125.172577827437</v>
+        <v>125.1725778274374</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466755</v>
+        <v>114.259358846676</v>
       </c>
       <c r="O10" t="n">
-        <v>126.055282941991</v>
+        <v>126.0552829419914</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773784</v>
+        <v>127.1165875773788</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>15.65516262515666</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.00186702483998</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>274.8351763665431</v>
       </c>
       <c r="P26" t="n">
-        <v>117.9051702753175</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473913</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0017854473915</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>21.74982042514679</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>21.74982042514705</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>117.9051702753167</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>131.2335379367247</v>
       </c>
       <c r="O38" t="n">
-        <v>233.4533865158185</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>221.2853655744088</v>
       </c>
       <c r="M41" t="n">
-        <v>78.40458911672874</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>21.7498204251477</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085646</v>
+        <v>15.10714246085647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>293.5837351078046</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>56.49786174394768</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>16.23346629499873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.6943568194082</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.03963821790863</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
         <v>117.8338987155166</v>
@@ -23498,22 +23498,22 @@
         <v>338.3517755722034</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>311.9852405386715</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412179</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>324.5767554161289</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>78.48746311745937</v>
+        <v>33.23406321318967</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.25175494662897</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>37.20369588884307</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3270321799912</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.25175494662957</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1494317.211513021</v>
+        <v>1494317.211513022</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1268828.503042553</v>
+        <v>1268828.503042552</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1268828.503042553</v>
+        <v>1268828.503042552</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="C2" t="n">
-        <v>20481.9378588291</v>
+        <v>20481.93785882911</v>
       </c>
       <c r="D2" t="n">
         <v>20482.29770208398</v>
@@ -26323,31 +26323,31 @@
         <v>18238.54283532381</v>
       </c>
       <c r="F2" t="n">
-        <v>18238.54283532381</v>
+        <v>18238.54283532382</v>
       </c>
       <c r="G2" t="n">
-        <v>19863.29754454474</v>
+        <v>19863.29754454473</v>
       </c>
       <c r="H2" t="n">
-        <v>19863.29754454474</v>
+        <v>19863.29754454476</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.04424660707</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
@@ -26369,34 +26369,34 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936319</v>
+        <v>38521.85015936185</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015503</v>
+        <v>1106215.961015504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071768</v>
+        <v>22820.53767071771</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049039</v>
+        <v>25410.3482204903</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343056</v>
+        <v>422862.8573343062</v>
       </c>
       <c r="E4" t="n">
         <v>38195.30988554745</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554746</v>
+        <v>38195.30988554745</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157184</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="P4" t="n">
         <v>82806.76150409841</v>
@@ -26473,13 +26473,13 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.2630805892</v>
+        <v>34688.26308058916</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911058</v>
       </c>
       <c r="G5" t="n">
         <v>80518.72463949902</v>
@@ -26488,7 +26488,7 @@
         <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449419.5712513222</v>
+        <v>-449423.9848291903</v>
       </c>
       <c r="C6" t="n">
-        <v>-451812.2202032246</v>
+        <v>-451816.6308420024</v>
       </c>
       <c r="D6" t="n">
-        <v>-475590.6728721741</v>
+        <v>-475595.0475266256</v>
       </c>
       <c r="E6" t="n">
-        <v>-1202742.299944837</v>
+        <v>-1202971.050085966</v>
       </c>
       <c r="F6" t="n">
-        <v>-96526.33892933422</v>
+        <v>-96755.08907046255</v>
       </c>
       <c r="G6" t="n">
-        <v>-173458.6435338302</v>
+        <v>-173524.9182040364</v>
       </c>
       <c r="H6" t="n">
-        <v>-135878.5342389561</v>
+        <v>-135944.8089091623</v>
       </c>
       <c r="I6" t="n">
         <v>-174790.0233608491</v>
       </c>
       <c r="J6" t="n">
-        <v>-177069.0071527878</v>
+        <v>-177069.0071527877</v>
       </c>
       <c r="K6" t="n">
         <v>-151658.6589322974</v>
@@ -26552,13 +26552,13 @@
         <v>-189238.7682271715</v>
       </c>
       <c r="M6" t="n">
-        <v>-358847.2272243703</v>
+        <v>-358847.2272243704</v>
       </c>
       <c r="N6" t="n">
         <v>-151658.6589322974</v>
       </c>
       <c r="O6" t="n">
-        <v>-151658.6589322975</v>
+        <v>-151658.6589322974</v>
       </c>
       <c r="P6" t="n">
         <v>-151658.6589322974</v>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.6542697517981</v>
+        <v>48.65426975179653</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26799,25 +26799,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034046</v>
+        <v>917.2184374034049</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855578</v>
+        <v>44.98040685855422</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.1224308415</v>
+        <v>1041.122430841501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111191</v>
+        <v>85.81698200111202</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1180238052101</v>
+        <v>97.11802380520976</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661366</v>
+        <v>337.4716642661367</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403307</v>
+        <v>202.935211240331</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128225</v>
+        <v>137.5825701128229</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868721</v>
+        <v>204.5629472868722</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140268</v>
+        <v>222.2396322140269</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451305</v>
+        <v>85.79346287451317</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805394</v>
+        <v>93.66019412805416</v>
       </c>
       <c r="S9" t="n">
-        <v>169.73929532649</v>
+        <v>169.7392953264901</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694517</v>
+        <v>161.4471089694518</v>
       </c>
       <c r="I10" t="n">
         <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880829</v>
+        <v>87.15615952880849</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739138</v>
+        <v>12.07602350739171</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917287</v>
+        <v>78.81524851917311</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723762</v>
+        <v>173.3484074723763</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891985</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880415</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S19" t="n">
-        <v>11.48104483558956</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739677</v>
+        <v>11.48104483559086</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739677</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H22" t="n">
-        <v>11.48104483559032</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559079</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559041</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.48104483559015</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30417,7 +30417,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
         <v>46.97513661859254</v>
@@ -30639,7 +30639,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
         <v>46.97513661859254</v>
@@ -30654,7 +30654,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="P43" t="n">
         <v>46.97513661859254</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.9751366185922</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785852</v>
+        <v>0.1955950542785789</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630561</v>
+        <v>2.003137849630496</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075163</v>
+        <v>7.54067833007492</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807709</v>
+        <v>16.60088573807655</v>
       </c>
       <c r="K8" t="n">
-        <v>24.8804243856896</v>
+        <v>24.8804243856888</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806786</v>
+        <v>30.86636652806686</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459465</v>
+        <v>34.34478007459354</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256368</v>
+        <v>34.90051452256255</v>
       </c>
       <c r="O8" t="n">
-        <v>32.955566201581</v>
+        <v>32.95556620157993</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907842</v>
+        <v>28.12681329907751</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772658</v>
+        <v>21.1220654177259</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832719</v>
+        <v>12.28654782832679</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373265</v>
+        <v>4.457122299373121</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045072</v>
+        <v>0.8562173501044795</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228681</v>
+        <v>0.01564760434228631</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208488</v>
+        <v>0.1046525802208454</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711882</v>
+        <v>1.010723603711849</v>
       </c>
       <c r="I9" t="n">
-        <v>3.60316997690203</v>
+        <v>3.603169976901914</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146067</v>
+        <v>9.887373818145749</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294293</v>
+        <v>16.89909669294239</v>
       </c>
       <c r="L9" t="n">
-        <v>22.7229209817242</v>
+        <v>22.72292098172347</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472996</v>
+        <v>26.51657701472911</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577241</v>
+        <v>27.21839190577154</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929992</v>
+        <v>24.89951104929912</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673383</v>
+        <v>19.98405279673318</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468238</v>
+        <v>13.35881006468195</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589191</v>
+        <v>6.497640024588981</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347781</v>
+        <v>1.943875777347719</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971929</v>
+        <v>0.4218233386971793</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424263</v>
+        <v>0.006885038172424041</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914411</v>
+        <v>0.08773720774914127</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878454</v>
+        <v>0.7800635379878204</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310626</v>
+        <v>2.63849712031054</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864488</v>
+        <v>6.203020587864288</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849147</v>
+        <v>10.19346831849114</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935912</v>
+        <v>13.0441299593587</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016811</v>
+        <v>13.75320612016766</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855767</v>
+        <v>13.42618561855724</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985176</v>
+        <v>12.40125550985136</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176921</v>
+        <v>10.61141647176886</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521514</v>
+        <v>7.346794732521277</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793333</v>
+        <v>3.944983904793206</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52902024777372</v>
+        <v>1.529020247773671</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827066</v>
+        <v>0.3748771603826945</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226048</v>
+        <v>0.004785665877225893</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33029,13 +33029,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187041</v>
+        <v>72.4995328118704</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431238</v>
       </c>
       <c r="L16" t="n">
         <v>346.6784883690023</v>
@@ -35814,10 +35814,10 @@
         <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7780623663442</v>
+        <v>371.7780623663443</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2742464214439</v>
+        <v>329.274246421444</v>
       </c>
       <c r="P16" t="n">
         <v>261.8781873439146</v>
@@ -35893,7 +35893,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36139,7 +36139,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36358,13 +36358,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>554.5762784553834</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>77.61506556706476</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547622</v>
       </c>
       <c r="P26" t="n">
-        <v>516.6671564946894</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36677,13 +36677,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36835,13 +36835,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397235</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36990,7 +36990,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>795.0547863356106</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>272.5441252288663</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>358.9411069805475</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>656.8262861055434</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,16 +37552,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>683.5353733496362</v>
       </c>
       <c r="O38" t="n">
-        <v>741.5063874040376</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,28 +37780,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>676.875479966741</v>
       </c>
       <c r="M41" t="n">
-        <v>617.3257049469555</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412332</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38017,10 +38017,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>643.8787818643256</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,13 +38029,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>272.5441252288672</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165843</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
